--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.87</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.87</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.67</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.67</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.58</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.46</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.75</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.75</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.73</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.985</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.865</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.795</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.795</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.675</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.675</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.53</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.53</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.53</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.53</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.505</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.455</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.455</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.23</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.23</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.055</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.055</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.71</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.71</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.71</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.89</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.89</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.89</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.72</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/threshold_analysis.xlsx
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
